--- a/random_data/random_demog.xlsx
+++ b/random_data/random_demog.xlsx
@@ -1,21 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/onedrive-univ-pd/pedagogical_extended_prone/random_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51E3FB-F0C2-C142-9EF9-1706D470C16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>gupi</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>tbc</t>
+  </si>
+  <si>
+    <t>t2_diabetes</t>
+  </si>
+  <si>
+    <t>chronic_kidney_disease</t>
+  </si>
+  <si>
+    <t>cirrhosis</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>ecmo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>icu_mortality</t>
+  </si>
+  <si>
+    <t>sapsII</t>
+  </si>
+  <si>
+    <t>hospital_mortality</t>
+  </si>
+  <si>
+    <t>brachial_plexus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +122,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,96 +453,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gupi</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>t2_diabetes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>chronic_kidney_disease</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cirrhosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ecmo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>icu_mortality</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sapsII</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>hospital_mortality</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>brachial_plexus</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -623,9 +696,6 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
@@ -639,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -689,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -739,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -789,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -839,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -889,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -939,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -989,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1039,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1089,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1139,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1189,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1239,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1289,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1339,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1389,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1439,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1489,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1539,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1589,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1639,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1689,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1739,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1789,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1839,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1889,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1939,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1989,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2039,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2089,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2139,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2189,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2239,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2289,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2339,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2389,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2439,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2489,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2539,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2589,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2639,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2689,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2739,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2789,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2839,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2889,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2939,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2989,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3039,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3089,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3139,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3189,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3239,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3289,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3339,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3389,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3439,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3489,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3539,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3589,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3639,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3689,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3739,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3789,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3839,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3889,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3939,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3989,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4039,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4089,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4139,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4189,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4239,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4289,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4339,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4389,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4439,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4489,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4539,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4589,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4639,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4689,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4739,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4789,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4839,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4889,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4939,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4989,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5039,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5089,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5139,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5189,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5239,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5289,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5339,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5389,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5439,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5489,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5539,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5589,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5639,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5689,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5739,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5789,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5839,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5889,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5939,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5989,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6039,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6089,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6139,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6189,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6239,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6289,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6339,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6389,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6439,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
